--- a/doc/Excel/Book1.xlsx
+++ b/doc/Excel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Self learn\kokshengbi\kokshengbi-backend\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9294D459-FC3C-4AE0-B93D-751397CF09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE8123-5938-4946-BAA2-41821829197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE428E32-D580-4ADD-84A3-47DC43BDA153}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="22605" windowHeight="13680" xr2:uid="{DE428E32-D580-4ADD-84A3-47DC43BDA153}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Excel/Book1.xlsx
+++ b/doc/Excel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Self learn\kokshengbi\kokshengbi-backend\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE8123-5938-4946-BAA2-41821829197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16567FD9-7605-4B41-9D47-7F7A9181ED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="22605" windowHeight="13680" xr2:uid="{DE428E32-D580-4ADD-84A3-47DC43BDA153}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE428E32-D580-4ADD-84A3-47DC43BDA153}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA7BA37-0EF6-4E2E-B50C-A31C913DF207}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -452,6 +452,46 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
